--- a/biology/Médecine/Sillon_du_nerf_ulnaire/Sillon_du_nerf_ulnaire.xlsx
+++ b/biology/Médecine/Sillon_du_nerf_ulnaire/Sillon_du_nerf_ulnaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon du nerf ulnaire est une large gouttière verticale située sur la face postérieure de l'épiphyse distale de l'humérus.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sillon du nerf ulnaire est formé par la face postérieure de l'épicondyle médial de l'humérus et la face médiale de l'olécrane.Les structures ligamentaires internes de l'articulation du coude complète le sillon.
 Le fascia superficiel entre le chef médial du muscle triceps brachial et le muscle fléchisseur ulnaire du carpe, ainsi que le tissu fibreux (l'arcade d'Osborne) qui unit les chefs huméral et ulnaire de ce dernier muscle transforment la gouttière en un canal ostéo-fibreux.
